--- a/Suraj_Timesheet_06April-20April-20.xlsx
+++ b/Suraj_Timesheet_06April-20April-20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RoyalCaterin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DA77F47-F3EA-43DA-8796-3FACC6D9955D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB8E3EE-9655-4562-A30C-9F7E2B6211E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="917" xr2:uid="{9089A6CE-FA61-4DB1-AEFF-029C2E0393FA}"/>
   </bookViews>
@@ -3929,16 +3929,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3952,12 +3958,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4899,8 +4899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7252926-DD1F-4535-A20D-BED355C0E8E8}">
   <dimension ref="B1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5441,7 +5441,7 @@
         <v>628</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -7301,55 +7301,55 @@
       <c r="B16" t="s">
         <v>653</v>
       </c>
-      <c r="D16" s="130" t="s">
+      <c r="D16" s="131" t="s">
         <v>667</v>
       </c>
-      <c r="E16" s="130"/>
-      <c r="F16" s="130"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="131"/>
       <c r="G16" t="s">
         <v>657</v>
       </c>
-      <c r="I16" s="130"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="130"/>
-      <c r="L16" s="130"/>
+      <c r="I16" s="131"/>
+      <c r="J16" s="131"/>
+      <c r="K16" s="131"/>
+      <c r="L16" s="131"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>281</v>
       </c>
-      <c r="D17" s="130"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="130"/>
-      <c r="K17" s="130"/>
-      <c r="L17" s="130"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="131"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="131"/>
+      <c r="K17" s="131"/>
+      <c r="L17" s="131"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>207</v>
       </c>
-      <c r="D18" s="130"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="130"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="131"/>
       <c r="G18" t="s">
         <v>658</v>
       </c>
-      <c r="I18" s="132" t="s">
+      <c r="I18" s="135" t="s">
         <v>666</v>
       </c>
-      <c r="J18" s="132"/>
-      <c r="K18" s="132"/>
-      <c r="L18" s="132"/>
+      <c r="J18" s="135"/>
+      <c r="K18" s="135"/>
+      <c r="L18" s="135"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>665</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="130"/>
-      <c r="F19" s="130"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="131"/>
+      <c r="F19" s="131"/>
       <c r="G19" s="109" t="s">
         <v>717</v>
       </c>
@@ -8365,23 +8365,23 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="130" t="s">
+      <c r="A52" s="131" t="s">
         <v>853</v>
       </c>
-      <c r="B52" s="130"/>
-      <c r="C52" s="130"/>
-      <c r="D52" s="130"/>
-      <c r="E52" s="130"/>
-      <c r="F52" s="130"/>
-      <c r="G52" s="130"/>
-      <c r="H52" s="130"/>
-      <c r="I52" s="130"/>
-      <c r="J52" s="130"/>
-      <c r="K52" s="130"/>
-      <c r="L52" s="130"/>
-      <c r="M52" s="130"/>
-      <c r="N52" s="130"/>
-      <c r="O52" s="130"/>
+      <c r="B52" s="131"/>
+      <c r="C52" s="131"/>
+      <c r="D52" s="131"/>
+      <c r="E52" s="131"/>
+      <c r="F52" s="131"/>
+      <c r="G52" s="131"/>
+      <c r="H52" s="131"/>
+      <c r="I52" s="131"/>
+      <c r="J52" s="131"/>
+      <c r="K52" s="131"/>
+      <c r="L52" s="131"/>
+      <c r="M52" s="131"/>
+      <c r="N52" s="131"/>
+      <c r="O52" s="131"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
@@ -12072,30 +12072,30 @@
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="133" t="s">
+      <c r="B4" s="130" t="s">
         <v>617</v>
       </c>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="133"/>
-      <c r="I4" s="133"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="96" t="s">
         <v>235</v>
       </c>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
       <c r="E5" s="96" t="s">
         <v>585</v>
       </c>
-      <c r="F5" s="130"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
       <c r="J5" t="s">
         <v>821</v>
       </c>
@@ -12124,109 +12124,109 @@
       <c r="B7" s="101" t="s">
         <v>231</v>
       </c>
-      <c r="C7" s="130"/>
-      <c r="D7" s="130"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
       <c r="E7" s="96" t="s">
         <v>237</v>
       </c>
-      <c r="F7" s="130"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="130"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="131"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="96" t="s">
         <v>229</v>
       </c>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
       <c r="E8" s="96" t="s">
         <v>238</v>
       </c>
-      <c r="F8" s="130"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="130"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="131"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="96" t="s">
         <v>233</v>
       </c>
-      <c r="C9" s="130"/>
-      <c r="D9" s="130"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
       <c r="E9" s="96" t="s">
         <v>239</v>
       </c>
-      <c r="F9" s="130"/>
-      <c r="G9" s="130"/>
-      <c r="H9" s="130"/>
-      <c r="I9" s="130"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="131"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="96" t="s">
         <v>234</v>
       </c>
-      <c r="C10" s="130"/>
-      <c r="D10" s="130"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="131"/>
       <c r="E10" s="96" t="s">
         <v>616</v>
       </c>
-      <c r="F10" s="138"/>
-      <c r="G10" s="130"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="130"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="131"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="96" t="s">
         <v>581</v>
       </c>
-      <c r="C11" s="130"/>
-      <c r="D11" s="130"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="131"/>
       <c r="E11" s="96" t="s">
         <v>615</v>
       </c>
-      <c r="F11" s="130"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="130"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="131"/>
     </row>
     <row r="12" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="96" t="s">
         <v>230</v>
       </c>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
       <c r="E12" s="96" t="s">
         <v>244</v>
       </c>
-      <c r="F12" s="131" t="s">
+      <c r="F12" s="134" t="s">
         <v>614</v>
       </c>
-      <c r="G12" s="131"/>
-      <c r="H12" s="131"/>
-      <c r="I12" s="131"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="134"/>
+      <c r="I12" s="134"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="96" t="s">
         <v>524</v>
       </c>
-      <c r="C13" s="130"/>
-      <c r="D13" s="130"/>
-      <c r="F13" s="131"/>
-      <c r="G13" s="131"/>
-      <c r="H13" s="131"/>
-      <c r="I13" s="131"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="131"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="134"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="96" t="s">
         <v>588</v>
       </c>
-      <c r="C14" s="130"/>
-      <c r="D14" s="130"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="131"/>
-      <c r="H14" s="131"/>
-      <c r="I14" s="131"/>
+      <c r="C14" s="131"/>
+      <c r="D14" s="131"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="134"/>
     </row>
     <row r="15" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="96" t="s">
@@ -12235,46 +12235,46 @@
       <c r="E15" s="96" t="s">
         <v>245</v>
       </c>
-      <c r="F15" s="131" t="s">
+      <c r="F15" s="134" t="s">
         <v>611</v>
       </c>
-      <c r="G15" s="131"/>
-      <c r="H15" s="131"/>
-      <c r="I15" s="131"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="134"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="F16" s="131"/>
-      <c r="G16" s="131"/>
-      <c r="H16" s="131"/>
-      <c r="I16" s="131"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="134"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F17" s="131"/>
-      <c r="G17" s="131"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="131"/>
+      <c r="F17" s="134"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="134"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="133" t="s">
+      <c r="B20" s="130" t="s">
         <v>593</v>
       </c>
-      <c r="C20" s="133"/>
-      <c r="D20" s="133"/>
-      <c r="E20" s="139"/>
-      <c r="F20" s="133"/>
-      <c r="G20" s="133"/>
-      <c r="H20" s="133"/>
-      <c r="I20" s="133"/>
+      <c r="C20" s="130"/>
+      <c r="D20" s="130"/>
+      <c r="E20" s="133"/>
+      <c r="F20" s="130"/>
+      <c r="G20" s="130"/>
+      <c r="H20" s="130"/>
+      <c r="I20" s="130"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="96" t="s">
         <v>592</v>
       </c>
-      <c r="C21" s="130"/>
-      <c r="D21" s="130"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="131"/>
       <c r="E21" s="96" t="s">
         <v>246</v>
       </c>
@@ -12283,43 +12283,43 @@
       <c r="B22" t="s">
         <v>258</v>
       </c>
-      <c r="C22" s="131" t="s">
+      <c r="C22" s="134" t="s">
         <v>609</v>
       </c>
-      <c r="D22" s="132"/>
+      <c r="D22" s="135"/>
       <c r="E22" s="96" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="132"/>
-      <c r="D23" s="132"/>
+      <c r="C23" s="135"/>
+      <c r="D23" s="135"/>
       <c r="E23" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="F23" s="131" t="s">
+      <c r="F23" s="134" t="s">
         <v>609</v>
       </c>
-      <c r="G23" s="132"/>
-      <c r="H23" s="132"/>
-      <c r="I23" s="132"/>
+      <c r="G23" s="135"/>
+      <c r="H23" s="135"/>
+      <c r="I23" s="135"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="132"/>
-      <c r="D24" s="132"/>
-      <c r="F24" s="132"/>
-      <c r="G24" s="132"/>
-      <c r="H24" s="132"/>
-      <c r="I24" s="132"/>
+      <c r="C24" s="135"/>
+      <c r="D24" s="135"/>
+      <c r="F24" s="135"/>
+      <c r="G24" s="135"/>
+      <c r="H24" s="135"/>
+      <c r="I24" s="135"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="96" t="s">
         <v>226</v>
       </c>
-      <c r="F25" s="132"/>
-      <c r="G25" s="132"/>
-      <c r="H25" s="132"/>
-      <c r="I25" s="132"/>
+      <c r="F25" s="135"/>
+      <c r="G25" s="135"/>
+      <c r="H25" s="135"/>
+      <c r="I25" s="135"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="96" t="s">
@@ -12328,39 +12328,39 @@
       <c r="E26" s="96" t="s">
         <v>251</v>
       </c>
-      <c r="F26" s="131" t="s">
+      <c r="F26" s="134" t="s">
         <v>609</v>
       </c>
-      <c r="G26" s="132"/>
-      <c r="H26" s="132"/>
-      <c r="I26" s="132"/>
+      <c r="G26" s="135"/>
+      <c r="H26" s="135"/>
+      <c r="I26" s="135"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="96" t="s">
         <v>521</v>
       </c>
-      <c r="F27" s="132"/>
-      <c r="G27" s="132"/>
-      <c r="H27" s="132"/>
-      <c r="I27" s="132"/>
+      <c r="F27" s="135"/>
+      <c r="G27" s="135"/>
+      <c r="H27" s="135"/>
+      <c r="I27" s="135"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F28" s="132"/>
-      <c r="G28" s="132"/>
-      <c r="H28" s="132"/>
-      <c r="I28" s="132"/>
+      <c r="F28" s="135"/>
+      <c r="G28" s="135"/>
+      <c r="H28" s="135"/>
+      <c r="I28" s="135"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="133" t="s">
+      <c r="B30" s="130" t="s">
         <v>595</v>
       </c>
-      <c r="C30" s="133"/>
-      <c r="D30" s="133"/>
-      <c r="E30" s="133"/>
-      <c r="F30" s="133"/>
-      <c r="G30" s="133"/>
-      <c r="H30" s="133"/>
-      <c r="I30" s="133"/>
+      <c r="C30" s="130"/>
+      <c r="D30" s="130"/>
+      <c r="E30" s="130"/>
+      <c r="F30" s="130"/>
+      <c r="G30" s="130"/>
+      <c r="H30" s="130"/>
+      <c r="I30" s="130"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="96" t="s">
@@ -12411,376 +12411,388 @@
       <c r="E38" s="96" t="s">
         <v>598</v>
       </c>
-      <c r="F38" s="131" t="s">
+      <c r="F38" s="134" t="s">
         <v>609</v>
       </c>
-      <c r="G38" s="132"/>
-      <c r="H38" s="132"/>
-      <c r="I38" s="132"/>
+      <c r="G38" s="135"/>
+      <c r="H38" s="135"/>
+      <c r="I38" s="135"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="97" t="s">
         <v>520</v>
       </c>
-      <c r="F39" s="132"/>
-      <c r="G39" s="132"/>
-      <c r="H39" s="132"/>
-      <c r="I39" s="132"/>
+      <c r="F39" s="135"/>
+      <c r="G39" s="135"/>
+      <c r="H39" s="135"/>
+      <c r="I39" s="135"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="97" t="s">
         <v>519</v>
       </c>
-      <c r="F40" s="132"/>
-      <c r="G40" s="132"/>
-      <c r="H40" s="132"/>
-      <c r="I40" s="132"/>
+      <c r="F40" s="135"/>
+      <c r="G40" s="135"/>
+      <c r="H40" s="135"/>
+      <c r="I40" s="135"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E41" s="96" t="s">
         <v>262</v>
       </c>
-      <c r="F41" s="131" t="s">
+      <c r="F41" s="134" t="s">
         <v>611</v>
       </c>
-      <c r="G41" s="132"/>
-      <c r="H41" s="132"/>
-      <c r="I41" s="132"/>
+      <c r="G41" s="135"/>
+      <c r="H41" s="135"/>
+      <c r="I41" s="135"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F42" s="132"/>
-      <c r="G42" s="132"/>
-      <c r="H42" s="132"/>
-      <c r="I42" s="132"/>
+      <c r="F42" s="135"/>
+      <c r="G42" s="135"/>
+      <c r="H42" s="135"/>
+      <c r="I42" s="135"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F43" s="132"/>
-      <c r="G43" s="132"/>
-      <c r="H43" s="132"/>
-      <c r="I43" s="132"/>
+      <c r="F43" s="135"/>
+      <c r="G43" s="135"/>
+      <c r="H43" s="135"/>
+      <c r="I43" s="135"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="132" t="s">
+      <c r="B45" s="135" t="s">
         <v>600</v>
       </c>
-      <c r="C45" s="134"/>
-      <c r="D45" s="134"/>
-      <c r="E45" s="132"/>
-      <c r="F45" s="134"/>
-      <c r="G45" s="134"/>
-      <c r="H45" s="134"/>
-      <c r="I45" s="134"/>
+      <c r="C45" s="136"/>
+      <c r="D45" s="136"/>
+      <c r="E45" s="135"/>
+      <c r="F45" s="136"/>
+      <c r="G45" s="136"/>
+      <c r="H45" s="136"/>
+      <c r="I45" s="136"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="96" t="s">
         <v>252</v>
       </c>
-      <c r="C46" s="135" t="s">
+      <c r="C46" s="137" t="s">
         <v>623</v>
       </c>
-      <c r="D46" s="136"/>
+      <c r="D46" s="138"/>
       <c r="E46" s="96" t="s">
         <v>253</v>
       </c>
-      <c r="F46" s="135" t="s">
+      <c r="F46" s="137" t="s">
         <v>624</v>
       </c>
-      <c r="G46" s="136"/>
-      <c r="H46" s="136"/>
-      <c r="I46" s="136"/>
+      <c r="G46" s="138"/>
+      <c r="H46" s="138"/>
+      <c r="I46" s="138"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C47" s="137"/>
-      <c r="D47" s="137"/>
-      <c r="F47" s="137"/>
-      <c r="G47" s="137"/>
-      <c r="H47" s="137"/>
-      <c r="I47" s="137"/>
+      <c r="C47" s="139"/>
+      <c r="D47" s="139"/>
+      <c r="F47" s="139"/>
+      <c r="G47" s="139"/>
+      <c r="H47" s="139"/>
+      <c r="I47" s="139"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C48" s="137"/>
-      <c r="D48" s="137"/>
-      <c r="F48" s="137"/>
-      <c r="G48" s="137"/>
-      <c r="H48" s="137"/>
-      <c r="I48" s="137"/>
+      <c r="C48" s="139"/>
+      <c r="D48" s="139"/>
+      <c r="F48" s="139"/>
+      <c r="G48" s="139"/>
+      <c r="H48" s="139"/>
+      <c r="I48" s="139"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C49" s="137"/>
-      <c r="D49" s="137"/>
-      <c r="F49" s="137"/>
-      <c r="G49" s="137"/>
-      <c r="H49" s="137"/>
-      <c r="I49" s="137"/>
+      <c r="C49" s="139"/>
+      <c r="D49" s="139"/>
+      <c r="F49" s="139"/>
+      <c r="G49" s="139"/>
+      <c r="H49" s="139"/>
+      <c r="I49" s="139"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C50" s="137"/>
-      <c r="D50" s="137"/>
-      <c r="F50" s="137"/>
-      <c r="G50" s="137"/>
-      <c r="H50" s="137"/>
-      <c r="I50" s="137"/>
+      <c r="C50" s="139"/>
+      <c r="D50" s="139"/>
+      <c r="F50" s="139"/>
+      <c r="G50" s="139"/>
+      <c r="H50" s="139"/>
+      <c r="I50" s="139"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C51" s="137"/>
-      <c r="D51" s="137"/>
-      <c r="F51" s="137"/>
-      <c r="G51" s="137"/>
-      <c r="H51" s="137"/>
-      <c r="I51" s="137"/>
+      <c r="C51" s="139"/>
+      <c r="D51" s="139"/>
+      <c r="F51" s="139"/>
+      <c r="G51" s="139"/>
+      <c r="H51" s="139"/>
+      <c r="I51" s="139"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C52" s="137"/>
-      <c r="D52" s="137"/>
-      <c r="F52" s="137"/>
-      <c r="G52" s="137"/>
-      <c r="H52" s="137"/>
-      <c r="I52" s="137"/>
+      <c r="C52" s="139"/>
+      <c r="D52" s="139"/>
+      <c r="F52" s="139"/>
+      <c r="G52" s="139"/>
+      <c r="H52" s="139"/>
+      <c r="I52" s="139"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C53" s="137"/>
-      <c r="D53" s="137"/>
+      <c r="C53" s="139"/>
+      <c r="D53" s="139"/>
       <c r="E53" t="s">
         <v>625</v>
       </c>
-      <c r="F53" s="131" t="s">
+      <c r="F53" s="134" t="s">
         <v>626</v>
       </c>
-      <c r="G53" s="132"/>
-      <c r="H53" s="132"/>
-      <c r="I53" s="132"/>
+      <c r="G53" s="135"/>
+      <c r="H53" s="135"/>
+      <c r="I53" s="135"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C54" s="137"/>
-      <c r="D54" s="137"/>
-      <c r="F54" s="132"/>
-      <c r="G54" s="132"/>
-      <c r="H54" s="132"/>
-      <c r="I54" s="132"/>
+      <c r="C54" s="139"/>
+      <c r="D54" s="139"/>
+      <c r="F54" s="135"/>
+      <c r="G54" s="135"/>
+      <c r="H54" s="135"/>
+      <c r="I54" s="135"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F55" s="132"/>
-      <c r="G55" s="132"/>
-      <c r="H55" s="132"/>
-      <c r="I55" s="132"/>
+      <c r="F55" s="135"/>
+      <c r="G55" s="135"/>
+      <c r="H55" s="135"/>
+      <c r="I55" s="135"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="134" t="s">
+      <c r="B57" s="136" t="s">
         <v>610</v>
       </c>
-      <c r="C57" s="134"/>
-      <c r="D57" s="134"/>
-      <c r="E57" s="134"/>
-      <c r="F57" s="134"/>
-      <c r="G57" s="134"/>
-      <c r="H57" s="134"/>
-      <c r="I57" s="134"/>
+      <c r="C57" s="136"/>
+      <c r="D57" s="136"/>
+      <c r="E57" s="136"/>
+      <c r="F57" s="136"/>
+      <c r="G57" s="136"/>
+      <c r="H57" s="136"/>
+      <c r="I57" s="136"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="96" t="s">
         <v>255</v>
       </c>
-      <c r="C58" s="131" t="s">
+      <c r="C58" s="134" t="s">
         <v>609</v>
       </c>
-      <c r="D58" s="132"/>
+      <c r="D58" s="135"/>
       <c r="E58" s="96" t="s">
         <v>260</v>
       </c>
-      <c r="F58" s="131" t="s">
+      <c r="F58" s="134" t="s">
         <v>609</v>
       </c>
-      <c r="G58" s="132"/>
-      <c r="H58" s="132"/>
-      <c r="I58" s="132"/>
+      <c r="G58" s="135"/>
+      <c r="H58" s="135"/>
+      <c r="I58" s="135"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C59" s="132"/>
-      <c r="D59" s="132"/>
-      <c r="F59" s="132"/>
-      <c r="G59" s="132"/>
-      <c r="H59" s="132"/>
-      <c r="I59" s="132"/>
+      <c r="C59" s="135"/>
+      <c r="D59" s="135"/>
+      <c r="F59" s="135"/>
+      <c r="G59" s="135"/>
+      <c r="H59" s="135"/>
+      <c r="I59" s="135"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C60" s="132"/>
-      <c r="D60" s="132"/>
-      <c r="F60" s="132"/>
-      <c r="G60" s="132"/>
-      <c r="H60" s="132"/>
-      <c r="I60" s="132"/>
+      <c r="C60" s="135"/>
+      <c r="D60" s="135"/>
+      <c r="F60" s="135"/>
+      <c r="G60" s="135"/>
+      <c r="H60" s="135"/>
+      <c r="I60" s="135"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="96" t="s">
         <v>256</v>
       </c>
-      <c r="C61" s="131" t="s">
+      <c r="C61" s="134" t="s">
         <v>609</v>
       </c>
-      <c r="D61" s="132"/>
+      <c r="D61" s="135"/>
       <c r="E61" s="96" t="s">
         <v>604</v>
       </c>
-      <c r="F61" s="131" t="s">
+      <c r="F61" s="134" t="s">
         <v>609</v>
       </c>
-      <c r="G61" s="132"/>
-      <c r="H61" s="132"/>
-      <c r="I61" s="132"/>
+      <c r="G61" s="135"/>
+      <c r="H61" s="135"/>
+      <c r="I61" s="135"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C62" s="132"/>
-      <c r="D62" s="132"/>
-      <c r="F62" s="132"/>
-      <c r="G62" s="132"/>
-      <c r="H62" s="132"/>
-      <c r="I62" s="132"/>
+      <c r="C62" s="135"/>
+      <c r="D62" s="135"/>
+      <c r="F62" s="135"/>
+      <c r="G62" s="135"/>
+      <c r="H62" s="135"/>
+      <c r="I62" s="135"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C63" s="132"/>
-      <c r="D63" s="132"/>
-      <c r="F63" s="132"/>
-      <c r="G63" s="132"/>
-      <c r="H63" s="132"/>
-      <c r="I63" s="132"/>
+      <c r="C63" s="135"/>
+      <c r="D63" s="135"/>
+      <c r="F63" s="135"/>
+      <c r="G63" s="135"/>
+      <c r="H63" s="135"/>
+      <c r="I63" s="135"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="96" t="s">
         <v>257</v>
       </c>
-      <c r="C64" s="131" t="s">
+      <c r="C64" s="134" t="s">
         <v>609</v>
       </c>
-      <c r="D64" s="132"/>
+      <c r="D64" s="135"/>
       <c r="E64" s="96" t="s">
         <v>261</v>
       </c>
-      <c r="F64" s="131" t="s">
+      <c r="F64" s="134" t="s">
         <v>609</v>
       </c>
-      <c r="G64" s="132"/>
-      <c r="H64" s="132"/>
-      <c r="I64" s="132"/>
+      <c r="G64" s="135"/>
+      <c r="H64" s="135"/>
+      <c r="I64" s="135"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C65" s="132"/>
-      <c r="D65" s="132"/>
-      <c r="F65" s="132"/>
-      <c r="G65" s="132"/>
-      <c r="H65" s="132"/>
-      <c r="I65" s="132"/>
+      <c r="C65" s="135"/>
+      <c r="D65" s="135"/>
+      <c r="F65" s="135"/>
+      <c r="G65" s="135"/>
+      <c r="H65" s="135"/>
+      <c r="I65" s="135"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C66" s="132"/>
-      <c r="D66" s="132"/>
-      <c r="F66" s="132"/>
-      <c r="G66" s="132"/>
-      <c r="H66" s="132"/>
-      <c r="I66" s="132"/>
+      <c r="C66" s="135"/>
+      <c r="D66" s="135"/>
+      <c r="F66" s="135"/>
+      <c r="G66" s="135"/>
+      <c r="H66" s="135"/>
+      <c r="I66" s="135"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="96" t="s">
         <v>602</v>
       </c>
-      <c r="C67" s="131" t="s">
+      <c r="C67" s="134" t="s">
         <v>609</v>
       </c>
-      <c r="D67" s="132"/>
+      <c r="D67" s="135"/>
       <c r="E67" s="96" t="s">
         <v>605</v>
       </c>
-      <c r="F67" s="131" t="s">
+      <c r="F67" s="134" t="s">
         <v>609</v>
       </c>
-      <c r="G67" s="132"/>
-      <c r="H67" s="132"/>
-      <c r="I67" s="132"/>
+      <c r="G67" s="135"/>
+      <c r="H67" s="135"/>
+      <c r="I67" s="135"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C68" s="132"/>
-      <c r="D68" s="132"/>
-      <c r="F68" s="132"/>
-      <c r="G68" s="132"/>
-      <c r="H68" s="132"/>
-      <c r="I68" s="132"/>
+      <c r="C68" s="135"/>
+      <c r="D68" s="135"/>
+      <c r="F68" s="135"/>
+      <c r="G68" s="135"/>
+      <c r="H68" s="135"/>
+      <c r="I68" s="135"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C69" s="132"/>
-      <c r="D69" s="132"/>
-      <c r="F69" s="132"/>
-      <c r="G69" s="132"/>
-      <c r="H69" s="132"/>
-      <c r="I69" s="132"/>
+      <c r="C69" s="135"/>
+      <c r="D69" s="135"/>
+      <c r="F69" s="135"/>
+      <c r="G69" s="135"/>
+      <c r="H69" s="135"/>
+      <c r="I69" s="135"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="96" t="s">
         <v>603</v>
       </c>
-      <c r="C70" s="131" t="s">
+      <c r="C70" s="134" t="s">
         <v>609</v>
       </c>
-      <c r="D70" s="132"/>
+      <c r="D70" s="135"/>
       <c r="E70" t="s">
         <v>607</v>
       </c>
-      <c r="F70" s="131" t="s">
+      <c r="F70" s="134" t="s">
         <v>609</v>
       </c>
-      <c r="G70" s="132"/>
-      <c r="H70" s="132"/>
-      <c r="I70" s="132"/>
+      <c r="G70" s="135"/>
+      <c r="H70" s="135"/>
+      <c r="I70" s="135"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C71" s="132"/>
-      <c r="D71" s="132"/>
-      <c r="F71" s="132"/>
-      <c r="G71" s="132"/>
-      <c r="H71" s="132"/>
-      <c r="I71" s="132"/>
+      <c r="C71" s="135"/>
+      <c r="D71" s="135"/>
+      <c r="F71" s="135"/>
+      <c r="G71" s="135"/>
+      <c r="H71" s="135"/>
+      <c r="I71" s="135"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C72" s="132"/>
-      <c r="D72" s="132"/>
-      <c r="F72" s="132"/>
-      <c r="G72" s="132"/>
-      <c r="H72" s="132"/>
-      <c r="I72" s="132"/>
+      <c r="C72" s="135"/>
+      <c r="D72" s="135"/>
+      <c r="F72" s="135"/>
+      <c r="G72" s="135"/>
+      <c r="H72" s="135"/>
+      <c r="I72" s="135"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="96" t="s">
         <v>259</v>
       </c>
-      <c r="C73" s="131" t="s">
+      <c r="C73" s="134" t="s">
         <v>609</v>
       </c>
-      <c r="D73" s="132"/>
+      <c r="D73" s="135"/>
       <c r="E73" t="s">
         <v>606</v>
       </c>
-      <c r="F73" s="130"/>
-      <c r="G73" s="130"/>
-      <c r="H73" s="130"/>
-      <c r="I73" s="130"/>
+      <c r="F73" s="131"/>
+      <c r="G73" s="131"/>
+      <c r="H73" s="131"/>
+      <c r="I73" s="131"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C74" s="132"/>
-      <c r="D74" s="132"/>
+      <c r="C74" s="135"/>
+      <c r="D74" s="135"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C75" s="132"/>
-      <c r="D75" s="132"/>
+      <c r="C75" s="135"/>
+      <c r="D75" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F73:I73"/>
+    <mergeCell ref="C73:D75"/>
+    <mergeCell ref="F58:I60"/>
+    <mergeCell ref="F61:I63"/>
+    <mergeCell ref="F64:I66"/>
+    <mergeCell ref="F67:I69"/>
+    <mergeCell ref="F70:I72"/>
+    <mergeCell ref="C58:D60"/>
+    <mergeCell ref="C61:D63"/>
+    <mergeCell ref="C64:D66"/>
+    <mergeCell ref="C67:D69"/>
+    <mergeCell ref="C70:D72"/>
+    <mergeCell ref="F26:I28"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="F38:I40"/>
+    <mergeCell ref="F41:I43"/>
+    <mergeCell ref="B57:I57"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="C46:D54"/>
+    <mergeCell ref="F46:I52"/>
+    <mergeCell ref="F53:I55"/>
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="B20:I20"/>
@@ -12794,27 +12806,15 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F26:I28"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="F38:I40"/>
-    <mergeCell ref="F41:I43"/>
-    <mergeCell ref="B57:I57"/>
-    <mergeCell ref="B45:I45"/>
-    <mergeCell ref="C46:D54"/>
-    <mergeCell ref="F46:I52"/>
-    <mergeCell ref="F53:I55"/>
-    <mergeCell ref="F73:I73"/>
-    <mergeCell ref="C73:D75"/>
-    <mergeCell ref="F58:I60"/>
-    <mergeCell ref="F61:I63"/>
-    <mergeCell ref="F64:I66"/>
-    <mergeCell ref="F67:I69"/>
-    <mergeCell ref="F70:I72"/>
-    <mergeCell ref="C58:D60"/>
-    <mergeCell ref="C61:D63"/>
-    <mergeCell ref="C64:D66"/>
-    <mergeCell ref="C67:D69"/>
-    <mergeCell ref="C70:D72"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
